--- a/HW3/Orbit3.xlsx
+++ b/HW3/Orbit3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\UF\EAS4510\Astrodynamics\HW3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E315B003-4351-406C-9255-3EC28A0C3944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964DBB18-D80F-4ECE-A9B7-96EB4FF257DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="840" windowWidth="29040" windowHeight="15720" xr2:uid="{D8617B7F-965A-4DE9-A2AC-1F23382D0F52}"/>
+    <workbookView xWindow="-24555" yWindow="5055" windowWidth="21600" windowHeight="11385" xr2:uid="{D8617B7F-965A-4DE9-A2AC-1F23382D0F52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,32 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>X Position</t>
-  </si>
-  <si>
-    <t>Y Position</t>
-  </si>
-  <si>
-    <t>Z Position</t>
-  </si>
-  <si>
-    <t>X Velocity</t>
-  </si>
-  <si>
-    <t>Y Velocity</t>
-  </si>
-  <si>
-    <t>Z Velocity</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,2309 +385,2309 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection sqref="A1:G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
+      <c r="A1">
+        <v>14569.199999999999</v>
+      </c>
+      <c r="B1">
+        <v>6997.5599755795192</v>
+      </c>
+      <c r="C1">
+        <v>-34108.000039947285</v>
+      </c>
+      <c r="D1">
+        <v>20765.489717012548</v>
+      </c>
+      <c r="E1">
+        <v>0.15599000655354475</v>
+      </c>
+      <c r="F1">
+        <v>0.25516996805625125</v>
+      </c>
+      <c r="G1">
+        <v>1.8076300194478596</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>14569.199999999999</v>
+        <v>14793.363636363636</v>
       </c>
       <c r="B2">
-        <v>6997.5599755795192</v>
+        <v>7031.4779875624026</v>
       </c>
       <c r="C2">
-        <v>-34108.000039947285</v>
+        <v>-34045.697192752341</v>
       </c>
       <c r="D2">
-        <v>20765.489717012548</v>
+        <v>21167.565739418154</v>
       </c>
       <c r="E2">
-        <v>0.15599000655354475</v>
+        <v>0.14663945264546513</v>
       </c>
       <c r="F2">
-        <v>0.25516996805625125</v>
+        <v>0.30059567955133304</v>
       </c>
       <c r="G2">
-        <v>1.8076300194478596</v>
+        <v>1.7796814373450589</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>14793.363636363636</v>
+        <v>15017.527272727271</v>
       </c>
       <c r="B3">
-        <v>7031.4779875624026</v>
+        <v>7063.3071997950537</v>
       </c>
       <c r="C3">
-        <v>-34045.697192752341</v>
+        <v>-33973.28050565187</v>
       </c>
       <c r="D3">
-        <v>21167.565739418154</v>
+        <v>21563.353750528462</v>
       </c>
       <c r="E3">
-        <v>0.14663945264546513</v>
+        <v>0.13735303378360136</v>
       </c>
       <c r="F3">
-        <v>0.30059567955133304</v>
+        <v>0.34541059749436265</v>
       </c>
       <c r="G3">
-        <v>1.7796814373450589</v>
+        <v>1.7515283285771672</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>15017.527272727271</v>
+        <v>15241.690909090908</v>
       </c>
       <c r="B4">
-        <v>7063.3071997950537</v>
+        <v>7093.0615638725449</v>
       </c>
       <c r="C4">
-        <v>-33973.28050565187</v>
+        <v>-33890.884098227529</v>
       </c>
       <c r="D4">
-        <v>21563.353750528462</v>
+        <v>21952.807602386132</v>
       </c>
       <c r="E4">
-        <v>0.13735303378360136</v>
+        <v>0.12812698638180292</v>
       </c>
       <c r="F4">
-        <v>0.34541059749436265</v>
+        <v>0.38963957030287666</v>
       </c>
       <c r="G4">
-        <v>1.7515283285771672</v>
+        <v>1.7231681366854286</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>15241.690909090908</v>
+        <v>15465.854545454544</v>
       </c>
       <c r="B5">
-        <v>7093.0615638725449</v>
+        <v>7120.7542006681824</v>
       </c>
       <c r="C5">
-        <v>-33890.884098227529</v>
+        <v>-33798.636653709582</v>
       </c>
       <c r="D5">
-        <v>21952.807602386132</v>
+        <v>22335.880518740789</v>
       </c>
       <c r="E5">
-        <v>0.12812698638180292</v>
+        <v>0.11895765974546239</v>
       </c>
       <c r="F5">
-        <v>0.38963957030287666</v>
+        <v>0.43330629022386213</v>
       </c>
       <c r="G5">
-        <v>1.7231681366854286</v>
+        <v>1.6945978378851203</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>15465.854545454544</v>
+        <v>15690.018181818181</v>
       </c>
       <c r="B6">
-        <v>7120.7542006681824</v>
+        <v>7146.3974248552367</v>
       </c>
       <c r="C6">
-        <v>-33798.636653709582</v>
+        <v>-33696.661669871843</v>
       </c>
       <c r="D6">
-        <v>22335.880518740789</v>
+        <v>22712.524993860028</v>
       </c>
       <c r="E6">
-        <v>0.11895765974546239</v>
+        <v>0.10984150773192602</v>
       </c>
       <c r="F6">
-        <v>0.43330629022386213</v>
+        <v>0.47643336627302879</v>
       </c>
       <c r="G6">
-        <v>1.6945978378851203</v>
+        <v>1.6658139590754435</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>15690.018181818181</v>
+        <v>15914.181818181816</v>
       </c>
       <c r="B7">
-        <v>7146.3974248552367</v>
+        <v>7170.002767623906</v>
       </c>
       <c r="C7">
-        <v>-33696.661669871843</v>
+        <v>-33585.077693807681</v>
       </c>
       <c r="D7">
-        <v>22712.524993860028</v>
+        <v>23082.692695680606</v>
       </c>
       <c r="E7">
-        <v>0.10984150773192602</v>
+        <v>0.10077508085415479</v>
       </c>
       <c r="F7">
-        <v>0.47643336627302879</v>
+        <v>0.51904239171538891</v>
       </c>
       <c r="G7">
-        <v>1.6658139590754435</v>
+        <v>1.6368125927973747</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>15914.181818181816</v>
+        <v>16138.345454545453</v>
       </c>
       <c r="B8">
-        <v>7170.002767623906</v>
+        <v>7191.5809976642186</v>
       </c>
       <c r="C8">
-        <v>-33585.077693807681</v>
+        <v>-33463.998541647146</v>
       </c>
       <c r="D8">
-        <v>23082.692695680606</v>
+        <v>23446.334372561792</v>
       </c>
       <c r="E8">
-        <v>0.10077508085415479</v>
+        <v>9.1755018787159789E-2</v>
       </c>
       <c r="F8">
-        <v>0.51904239171538891</v>
+        <v>0.56115400655689207</v>
       </c>
       <c r="G8">
-        <v>1.6368125927973747</v>
+        <v>1.6075894093801395</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>16138.345454545453</v>
+        <v>16362.50909090909</v>
       </c>
       <c r="B9">
-        <v>7191.5809976642186</v>
+        <v>7211.142140471622</v>
       </c>
       <c r="C9">
-        <v>-33463.998541647146</v>
+        <v>-33333.533504222862</v>
       </c>
       <c r="D9">
-        <v>23446.334372561792</v>
+        <v>23803.399762842098</v>
       </c>
       <c r="E9">
-        <v>9.1755018787159789E-2</v>
+        <v>8.2778043242480559E-2</v>
       </c>
       <c r="F9">
-        <v>0.56115400655689207</v>
+        <v>0.60278795545673203</v>
       </c>
       <c r="G9">
-        <v>1.6075894093801395</v>
+        <v>1.5781396664914891</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>16362.50909090909</v>
+        <v>16586.672727272726</v>
       </c>
       <c r="B10">
-        <v>7211.142140471622</v>
+        <v>7228.6954960232497</v>
       </c>
       <c r="C10">
-        <v>-33333.533504222862</v>
+        <v>-33193.787539677556</v>
       </c>
       <c r="D10">
-        <v>23803.399762842098</v>
+        <v>24153.837506335723</v>
       </c>
       <c r="E10">
-        <v>8.2778043242480559E-2</v>
+        <v>7.3840951181655415E-2</v>
       </c>
       <c r="F10">
-        <v>0.60278795545673203</v>
+        <v>0.64396314141456346</v>
       </c>
       <c r="G10">
-        <v>1.5781396664914891</v>
+        <v>1.548458216287133</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>16586.672727272726</v>
+        <v>16810.836363636365</v>
       </c>
       <c r="B11">
-        <v>7228.6954960232497</v>
+        <v>7244.2496548709923</v>
       </c>
       <c r="C11">
-        <v>-33193.787539677556</v>
+        <v>-33044.861454028374</v>
       </c>
       <c r="D11">
-        <v>24153.837506335723</v>
+        <v>24497.595056860147</v>
       </c>
       <c r="E11">
-        <v>7.3840951181655415E-2</v>
+        <v>6.494060834484984E-2</v>
       </c>
       <c r="F11">
-        <v>0.64396314141456346</v>
+        <v>0.68469767553758587</v>
       </c>
       <c r="G11">
-        <v>1.548458216287133</v>
+        <v>1.5185395103385906</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>16810.836363636365</v>
+        <v>17035</v>
       </c>
       <c r="B12">
-        <v>7244.2496548709923</v>
+        <v>7257.812512703038</v>
       </c>
       <c r="C12">
-        <v>-33044.861454028374</v>
+        <v>-32886.852070744208</v>
       </c>
       <c r="D12">
-        <v>24497.595056860147</v>
+        <v>24834.618594882151</v>
       </c>
       <c r="E12">
-        <v>6.494060834484984E-2</v>
+        <v>5.6073943075074018E-2</v>
       </c>
       <c r="F12">
-        <v>0.68469767553758587</v>
+        <v>0.72500892315100451</v>
       </c>
       <c r="G12">
-        <v>1.5185395103385906</v>
+        <v>1.4883776025040181</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>17035</v>
+        <v>17259.163636363635</v>
       </c>
       <c r="B13">
-        <v>7257.812512703038</v>
+        <v>7269.3912834371113</v>
       </c>
       <c r="C13">
-        <v>-32886.852070744208</v>
+        <v>-32719.852390434615</v>
       </c>
       <c r="D13">
-        <v>24834.618594882151</v>
+        <v>25164.852939423876</v>
       </c>
       <c r="E13">
-        <v>5.6073943075074018E-2</v>
+        <v>4.7237940421228378E-2</v>
       </c>
       <c r="F13">
-        <v>0.72500892315100451</v>
+        <v>0.76491354648338328</v>
       </c>
       <c r="G13">
-        <v>1.4883776025040181</v>
+        <v>1.4579661498906558</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>17259.163636363635</v>
+        <v>17483.327272727271</v>
       </c>
       <c r="B14">
-        <v>7269.3912834371113</v>
+        <v>7278.992510924425</v>
       </c>
       <c r="C14">
-        <v>-32719.852390434615</v>
+        <v>-32543.951741769666</v>
       </c>
       <c r="D14">
-        <v>25164.852939423876</v>
+        <v>25488.241458490746</v>
       </c>
       <c r="E14">
-        <v>4.7237940421228378E-2</v>
+        <v>3.842963650425861E-2</v>
       </c>
       <c r="F14">
-        <v>0.76491354648338328</v>
+        <v>0.80442754413660356</v>
       </c>
       <c r="G14">
-        <v>1.4579661498906558</v>
+        <v>1.4272984120385033</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>17483.327272727271</v>
+        <v>17707.49090909091</v>
       </c>
       <c r="B15">
-        <v>7278.992510924425</v>
+        <v>7286.622079359352</v>
       </c>
       <c r="C15">
-        <v>-32543.951741769666</v>
+        <v>-32359.235924727345</v>
       </c>
       <c r="D15">
-        <v>25488.241458490746</v>
+        <v>25804.725977464688</v>
       </c>
       <c r="E15">
-        <v>3.842963650425861E-2</v>
+        <v>2.9646113129799961E-2</v>
       </c>
       <c r="F15">
-        <v>0.80442754413660356</v>
+        <v>0.84356628753855789</v>
       </c>
       <c r="G15">
-        <v>1.4272984120385033</v>
+        <v>1.396367248430977</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>17707.49090909091</v>
+        <v>17931.654545454545</v>
       </c>
       <c r="B16">
-        <v>7286.622079359352</v>
+        <v>7292.2852225019979</v>
       </c>
       <c r="C16">
-        <v>-32359.235924727345</v>
+        <v>-32165.787347181245</v>
       </c>
       <c r="D16">
-        <v>25804.725977464688</v>
+        <v>26114.246685131024</v>
       </c>
       <c r="E16">
-        <v>2.9646113129799961E-2</v>
+        <v>2.0884492627995591E-2</v>
       </c>
       <c r="F16">
-        <v>0.84356628753855789</v>
+        <v>0.8823445545738684</v>
       </c>
       <c r="G16">
-        <v>1.396367248430977</v>
+        <v>1.3651651144091774</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>17931.654545454545</v>
+        <v>18155.81818181818</v>
       </c>
       <c r="B17">
-        <v>7292.2852225019979</v>
+        <v>7295.9865318253924</v>
       </c>
       <c r="C17">
-        <v>-32165.787347181245</v>
+        <v>-31963.685155693005</v>
       </c>
       <c r="D17">
-        <v>26114.246685131024</v>
+        <v>26416.742037247306</v>
       </c>
       <c r="E17">
-        <v>2.0884492627995591E-2</v>
+        <v>1.2141932897140509E-2</v>
       </c>
       <c r="F17">
-        <v>0.8823445545738684</v>
+        <v>0.92077656059124835</v>
       </c>
       <c r="G17">
-        <v>1.3651651144091774</v>
+        <v>1.3336840555327678</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18155.81818181818</v>
+        <v>18379.981818181819</v>
       </c>
       <c r="B18">
-        <v>7295.9865318253924</v>
+        <v>7297.7299636925409</v>
       </c>
       <c r="C18">
-        <v>-31963.685155693005</v>
+        <v>-31753.00536116369</v>
       </c>
       <c r="D18">
-        <v>26416.742037247306</v>
+        <v>26712.148657779107</v>
       </c>
       <c r="E18">
-        <v>1.2141932897140509E-2</v>
+        <v>3.4156226231235216E-3</v>
       </c>
       <c r="F18">
-        <v>0.92077656059124835</v>
+        <v>0.95887598699192855</v>
       </c>
       <c r="G18">
-        <v>1.3336840555327678</v>
+        <v>1.3019157003940975</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18379.981818181819</v>
+        <v>18604.145454545454</v>
       </c>
       <c r="B19">
-        <v>7297.7299636925409</v>
+        <v>7297.5188456503674</v>
       </c>
       <c r="C19">
-        <v>-31753.00536116369</v>
+        <v>-31533.820959748806</v>
       </c>
       <c r="D19">
-        <v>26712.148657779107</v>
+        <v>27000.401238087128</v>
       </c>
       <c r="E19">
-        <v>3.4156226231235216E-3</v>
+        <v>-5.2972233578282221E-3</v>
       </c>
       <c r="F19">
-        <v>0.95887598699192855</v>
+        <v>0.99665600760793505</v>
       </c>
       <c r="G19">
-        <v>1.3019157003940975</v>
+        <v>1.2698512518558651</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>18604.145454545454</v>
+        <v>18828.30909090909</v>
       </c>
       <c r="B20">
-        <v>7297.5188456503674</v>
+        <v>7295.3558818984402</v>
       </c>
       <c r="C20">
-        <v>-31533.820959748806</v>
+        <v>-31306.202049181509</v>
       </c>
       <c r="D20">
-        <v>27000.401238087128</v>
+        <v>27281.432434419476</v>
       </c>
       <c r="E20">
-        <v>-5.2972233578282221E-3</v>
+        <v>-1.3999368588936878E-2</v>
       </c>
       <c r="F20">
-        <v>0.99665600760793505</v>
+        <v>1.0341293130778701</v>
       </c>
       <c r="G20">
-        <v>1.2698512518558651</v>
+        <v>1.2374814766496516</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>18828.30909090909</v>
+        <v>19052.472727272729</v>
       </c>
       <c r="B21">
-        <v>7295.3558818984402</v>
+        <v>7291.2431579536187</v>
       </c>
       <c r="C21">
-        <v>-31306.202049181509</v>
+        <v>-31070.215940415073</v>
       </c>
       <c r="D21">
-        <v>27281.432434419476</v>
+        <v>27555.172764026123</v>
       </c>
       <c r="E21">
-        <v>-1.3999368588936878E-2</v>
+        <v>-2.2693559452507398E-2</v>
       </c>
       <c r="F21">
-        <v>1.0341293130778701</v>
+        <v>1.0713081334182755</v>
       </c>
       <c r="G21">
-        <v>1.2374814766496516</v>
+        <v>1.2047966932460603</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>19052.472727272729</v>
+        <v>19276.636363636364</v>
       </c>
       <c r="B22">
-        <v>7291.2431579536187</v>
+        <v>7285.1821444927173</v>
       </c>
       <c r="C22">
-        <v>-31070.215940415073</v>
+        <v>-30825.92726432507</v>
       </c>
       <c r="D22">
-        <v>27555.172764026123</v>
+        <v>27821.550500070487</v>
       </c>
       <c r="E22">
-        <v>-2.2693559452507398E-2</v>
+        <v>-3.1382529595866702E-2</v>
       </c>
       <c r="F22">
-        <v>1.0713081334182755</v>
+        <v>1.1082042589691354</v>
       </c>
       <c r="G22">
-        <v>1.2047966932460603</v>
+        <v>1.1717867578893713</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>19276.636363636364</v>
+        <v>19500.8</v>
       </c>
       <c r="B23">
-        <v>7285.1821444927173</v>
+        <v>7277.1737003194248</v>
       </c>
       <c r="C23">
-        <v>-30825.92726432507</v>
+        <v>-30573.398073132699</v>
       </c>
       <c r="D23">
-        <v>27821.550500070487</v>
+        <v>28080.491565280037</v>
       </c>
       <c r="E23">
-        <v>-3.1382529595866702E-2</v>
+        <v>-4.0069004356743487E-2</v>
       </c>
       <c r="F23">
-        <v>1.1082042589691354</v>
+        <v>1.1448290598625026</v>
       </c>
       <c r="G23">
-        <v>1.1717867578893713</v>
+        <v>1.1384410486818071</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>19500.8</v>
+        <v>19724.963636363638</v>
       </c>
       <c r="B24">
-        <v>7277.1737003194248</v>
+        <v>7267.218074375086</v>
       </c>
       <c r="C24">
-        <v>-30573.398073132699</v>
+        <v>-30312.687936237613</v>
       </c>
       <c r="D24">
-        <v>28080.491565280037</v>
+        <v>28331.919423991018</v>
       </c>
       <c r="E24">
-        <v>-4.0069004356743487E-2</v>
+        <v>-4.8755705215813766E-2</v>
       </c>
       <c r="F24">
-        <v>1.1448290598625026</v>
+        <v>1.1811935041258979</v>
       </c>
       <c r="G24">
-        <v>1.1384410486818071</v>
+        <v>1.1047484476040166</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>19724.963636363638</v>
+        <v>19949.127272727274</v>
       </c>
       <c r="B25">
-        <v>7267.218074375086</v>
+        <v>7255.3149066993647</v>
       </c>
       <c r="C25">
-        <v>-30312.687936237613</v>
+        <v>-30043.854030279897</v>
       </c>
       <c r="D25">
-        <v>28331.919423991018</v>
+        <v>28575.754971940602</v>
       </c>
       <c r="E25">
-        <v>-4.8755705215813766E-2</v>
+        <v>-5.7445354297274473E-2</v>
       </c>
       <c r="F25">
-        <v>1.1811935041258979</v>
+        <v>1.2173081744901031</v>
       </c>
       <c r="G25">
-        <v>1.1047484476040166</v>
+        <v>1.070697320367417</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>19949.127272727274</v>
+        <v>20173.290909090909</v>
       </c>
       <c r="B26">
-        <v>7255.3149066993647</v>
+        <v>7241.4632282485663</v>
       </c>
       <c r="C26">
-        <v>-30043.854030279897</v>
+        <v>-29766.951223467</v>
       </c>
       <c r="D26">
-        <v>28575.754971940602</v>
+        <v>28811.916422890357</v>
       </c>
       <c r="E26">
-        <v>-5.7445354297274473E-2</v>
+        <v>-6.6140678930971225E-2</v>
       </c>
       <c r="F26">
-        <v>1.2173081744901031</v>
+        <v>1.2531832839286661</v>
       </c>
       <c r="G26">
-        <v>1.070697320367417</v>
+        <v>1.0362754940071155</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>20173.290909090909</v>
+        <v>20397.454545454544</v>
       </c>
       <c r="B27">
-        <v>7241.4632282485663</v>
+        <v>7225.6614594951589</v>
       </c>
       <c r="C27">
-        <v>-29766.951223467</v>
+        <v>-29482.032154465713</v>
       </c>
       <c r="D27">
-        <v>28811.916422890357</v>
+        <v>29040.319190962924</v>
       </c>
       <c r="E27">
-        <v>-6.6140678930971225E-2</v>
+        <v>-7.4844416282851156E-2</v>
       </c>
       <c r="F27">
-        <v>1.2531832839286661</v>
+        <v>1.2888286899181542</v>
       </c>
       <c r="G27">
-        <v>1.0362754940071155</v>
+        <v>1.0014702321371005</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>20397.454545454544</v>
+        <v>20621.618181818183</v>
       </c>
       <c r="B28">
-        <v>7225.6614594951589</v>
+        <v>7207.9074077590021</v>
       </c>
       <c r="C28">
-        <v>-29482.032154465713</v>
+        <v>-29189.147306431729</v>
       </c>
       <c r="D28">
-        <v>29040.319190962924</v>
+        <v>29260.875767467725</v>
       </c>
       <c r="E28">
-        <v>-7.4844416282851156E-2</v>
+        <v>-8.355931805530277E-2</v>
       </c>
       <c r="F28">
-        <v>1.2888286899181542</v>
+        <v>1.3242539073776571</v>
       </c>
       <c r="G28">
-        <v>1.0014702321371005</v>
+        <v>0.96626820779803579</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>20621.618181818183</v>
+        <v>20845.781818181818</v>
       </c>
       <c r="B29">
-        <v>7207.9074077590021</v>
+        <v>7188.1982632533654</v>
       </c>
       <c r="C29">
-        <v>-29189.147306431729</v>
+        <v>-28888.345076984664</v>
       </c>
       <c r="D29">
-        <v>29260.875767467725</v>
+        <v>29473.495590986386</v>
       </c>
       <c r="E29">
-        <v>-8.355931805530277E-2</v>
+        <v>-9.2288155255999565E-2</v>
       </c>
       <c r="F29">
-        <v>1.3242539073776571</v>
+        <v>1.3594681202255559</v>
       </c>
       <c r="G29">
-        <v>0.96626820779803579</v>
+        <v>0.93065547382860903</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>20845.781818181818</v>
+        <v>21069.945454545457</v>
       </c>
       <c r="B30">
-        <v>7188.1982632533654</v>
+        <v>7166.530593860668</v>
       </c>
       <c r="C30">
-        <v>-28888.345076984664</v>
+        <v>-28579.671845097582</v>
       </c>
       <c r="D30">
-        <v>29473.495590986386</v>
+        <v>29678.084909575362</v>
       </c>
       <c r="E30">
-        <v>-9.2288155255999565E-2</v>
+        <v>-0.10103372303357022</v>
       </c>
       <c r="F30">
-        <v>1.3594681202255559</v>
+        <v>1.3944801914819287</v>
       </c>
       <c r="G30">
-        <v>0.93065547382860903</v>
+        <v>0.89461743068138921</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>21069.945454545457</v>
+        <v>21294.109090909093</v>
       </c>
       <c r="B31">
-        <v>7166.530593860668</v>
+        <v>7142.900338678699</v>
       </c>
       <c r="C31">
-        <v>-28579.671845097582</v>
+        <v>-28263.17203593739</v>
       </c>
       <c r="D31">
-        <v>29678.084909575362</v>
+        <v>29874.546634097493</v>
       </c>
       <c r="E31">
-        <v>-0.10103372303357022</v>
+        <v>-0.10979884558069998</v>
       </c>
       <c r="F31">
-        <v>1.3944801914819287</v>
+        <v>1.4292986718449987</v>
       </c>
       <c r="G31">
-        <v>0.89461743068138921</v>
+        <v>0.85813879158268991</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>21294.109090909093</v>
+        <v>21518.272727272728</v>
       </c>
       <c r="B32">
-        <v>7142.900338678699</v>
+        <v>7117.3028003928348</v>
       </c>
       <c r="C32">
-        <v>-28263.17203593739</v>
+        <v>-27938.888184657233</v>
       </c>
       <c r="D32">
-        <v>29874.546634097493</v>
+        <v>30062.78018187988</v>
       </c>
       <c r="E32">
-        <v>-0.10979884558069998</v>
+        <v>-0.11858638110973664</v>
       </c>
       <c r="F32">
-        <v>1.4292986718449987</v>
+        <v>1.4639318066772438</v>
       </c>
       <c r="G32">
-        <v>0.85813879158268991</v>
+        <v>0.82120354490338343</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>21518.272727272728</v>
+        <v>21742.436363636363</v>
       </c>
       <c r="B33">
-        <v>7117.3028003928348</v>
+        <v>7089.732636531462</v>
       </c>
       <c r="C33">
-        <v>-27938.888184657233</v>
+        <v>-27606.861000019238</v>
       </c>
       <c r="D33">
-        <v>30062.78018187988</v>
+        <v>30242.681310073924</v>
       </c>
       <c r="E33">
-        <v>-0.11858638110973664</v>
+        <v>-0.12739922691175942</v>
       </c>
       <c r="F33">
-        <v>1.4639318066772438</v>
+        <v>1.4983875413474093</v>
       </c>
       <c r="G33">
-        <v>0.82120354490338343</v>
+        <v>0.78379491356623399</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>21742.436363636363</v>
+        <v>21966.6</v>
       </c>
       <c r="B34">
-        <v>7089.732636531462</v>
+        <v>7060.1838496506798</v>
       </c>
       <c r="C34">
-        <v>-27606.861000019238</v>
+        <v>-27267.129428541222</v>
       </c>
       <c r="D34">
-        <v>30242.681310073924</v>
+        <v>30414.141938233322</v>
       </c>
       <c r="E34">
-        <v>-0.12739922691175942</v>
+        <v>-0.13624032451657442</v>
       </c>
       <c r="F34">
-        <v>1.4983875413474093</v>
+        <v>1.5326735248849495</v>
       </c>
       <c r="G34">
-        <v>0.78379491356623399</v>
+        <v>0.74589531126763875</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>21966.6</v>
+        <v>22190.763636363637</v>
       </c>
       <c r="B35">
-        <v>7060.1838496506798</v>
+        <v>7028.6497764723872</v>
       </c>
       <c r="C35">
-        <v>-27267.129428541222</v>
+        <v>-26919.730719648818</v>
       </c>
       <c r="D35">
-        <v>30414.141938233322</v>
+        <v>30577.049959699416</v>
       </c>
       <c r="E35">
-        <v>-0.13624032451657442</v>
+        <v>-0.14511266497731379</v>
       </c>
       <c r="F35">
-        <v>1.5326735248849495</v>
+        <v>1.5667971119094457</v>
       </c>
       <c r="G35">
-        <v>0.74589531126763875</v>
+        <v>0.70748629524109052</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>22190.763636363637</v>
+        <v>22414.927272727273</v>
       </c>
       <c r="B36">
-        <v>7028.6497764723872</v>
+        <v>6995.1230759712653</v>
       </c>
       <c r="C36">
-        <v>-26919.730719648818</v>
+        <v>-26564.700492113654</v>
       </c>
       <c r="D36">
-        <v>30577.049959699416</v>
+        <v>30731.289041380023</v>
       </c>
       <c r="E36">
-        <v>-0.14511266497731379</v>
+        <v>-0.15401929430855357</v>
       </c>
       <c r="F36">
-        <v>1.5667971119094457</v>
+        <v>1.6007653627965186</v>
       </c>
       <c r="G36">
-        <v>0.70748629524109052</v>
+        <v>0.66854851523897518</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>22414.927272727273</v>
+        <v>22639.090909090912</v>
       </c>
       <c r="B37">
-        <v>6995.1230759712653</v>
+        <v>6959.5957163755293</v>
       </c>
       <c r="C37">
-        <v>-26564.700492113654</v>
+        <v>-26202.072801899085</v>
       </c>
       <c r="D37">
-        <v>30731.289041380023</v>
+        <v>30876.738411430102</v>
       </c>
       <c r="E37">
-        <v>-0.15401929430855357</v>
+        <v>-0.16296331911069648</v>
       </c>
       <c r="F37">
-        <v>1.6007653627965186</v>
+        <v>1.634585042032024</v>
       </c>
       <c r="G37">
-        <v>0.66854851523897518</v>
+        <v>0.62906165836032912</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>22639.090909090912</v>
+        <v>22863.254545454547</v>
       </c>
       <c r="B38">
-        <v>6959.5957163755293</v>
+        <v>6922.0589610178204</v>
       </c>
       <c r="C38">
-        <v>-26202.072801899085</v>
+        <v>-25831.880211440981</v>
       </c>
       <c r="D38">
-        <v>30876.738411430102</v>
+        <v>31013.272634198009</v>
       </c>
       <c r="E38">
-        <v>-0.16296331911069648</v>
+        <v>-0.17194791241557214</v>
       </c>
       <c r="F38">
-        <v>1.634585042032024</v>
+        <v>1.6682626146871804</v>
       </c>
       <c r="G38">
-        <v>0.62906165836032912</v>
+        <v>0.58900438930603694</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>22863.254545454547</v>
+        <v>23087.418181818182</v>
       </c>
       <c r="B39">
-        <v>6922.0589610178204</v>
+        <v>6882.5033529495531</v>
       </c>
       <c r="C39">
-        <v>-25831.880211440981</v>
+        <v>-25454.153860369501</v>
       </c>
       <c r="D39">
-        <v>31013.272634198009</v>
+        <v>31140.761371612934</v>
       </c>
       <c r="E39">
-        <v>-0.17194791241557214</v>
+        <v>-0.18097631978901943</v>
       </c>
       <c r="F39">
-        <v>1.6682626146871804</v>
+        <v>1.7018042409196337</v>
       </c>
       <c r="G39">
-        <v>0.58900438930603694</v>
+        <v>0.54835428559872146</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>23087.418181818182</v>
+        <v>23311.581818181818</v>
       </c>
       <c r="B40">
-        <v>6882.5033529495531</v>
+        <v>6840.9186982166175</v>
       </c>
       <c r="C40">
-        <v>-25454.153860369501</v>
+        <v>-25068.923537729755</v>
       </c>
       <c r="D40">
-        <v>31140.761371612934</v>
+        <v>31259.06912997492</v>
       </c>
       <c r="E40">
-        <v>-0.18097631978901943</v>
+        <v>-0.19005186572585842</v>
       </c>
       <c r="F40">
-        <v>1.7018042409196337</v>
+        <v>1.7352157683702614</v>
       </c>
       <c r="G40">
-        <v>0.54835428559872146</v>
+        <v>0.50708776726129356</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>23311.581818181818</v>
+        <v>23535.745454545457</v>
       </c>
       <c r="B41">
-        <v>6840.9186982166175</v>
+        <v>6797.2940476860349</v>
       </c>
       <c r="C41">
-        <v>-25068.923537729755</v>
+        <v>-24676.217755866026</v>
       </c>
       <c r="D41">
-        <v>31259.06912997492</v>
+        <v>31368.054990888973</v>
       </c>
       <c r="E41">
-        <v>-0.19005186572585842</v>
+        <v>-0.19917796037175847</v>
       </c>
       <c r="F41">
-        <v>1.7352157683702614</v>
+        <v>1.7685027222847642</v>
       </c>
       <c r="G41">
-        <v>0.50708776726129356</v>
+        <v>0.46518002040267858</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>23535.745454545457</v>
+        <v>23759.909090909092</v>
       </c>
       <c r="B42">
-        <v>6797.2940476860349</v>
+        <v>6751.6176773114175</v>
       </c>
       <c r="C42">
-        <v>-24676.217755866026</v>
+        <v>-24276.063826282141</v>
       </c>
       <c r="D42">
-        <v>31368.054990888973</v>
+        <v>31467.572324872872</v>
       </c>
       <c r="E42">
-        <v>-0.19917796037175847</v>
+        <v>-0.20835810660546858</v>
       </c>
       <c r="F42">
-        <v>1.7685027222847642</v>
+        <v>1.8016702931439683</v>
       </c>
       <c r="G42">
-        <v>0.46518002040267858</v>
+        <v>0.42260491410927592</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>23759.909090909092</v>
+        <v>23984.072727272727</v>
       </c>
       <c r="B43">
-        <v>6751.6176773114175</v>
+        <v>6703.8770667273875</v>
       </c>
       <c r="C43">
-        <v>-24276.063826282141</v>
+        <v>-23868.487937955637</v>
       </c>
       <c r="D43">
-        <v>31467.572324872872</v>
+        <v>31557.468485971156</v>
       </c>
       <c r="E43">
-        <v>-0.20835810660546858</v>
+        <v>-0.21759590751423591</v>
       </c>
       <c r="F43">
-        <v>1.8016702931439683</v>
+        <v>1.8347233215385312</v>
       </c>
       <c r="G43">
-        <v>0.42260491410927592</v>
+        <v>0.37933490998286468</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>23984.072727272727</v>
+        <v>24208.236363636366</v>
       </c>
       <c r="B44">
-        <v>6703.8770667273875</v>
+        <v>6654.058876066948</v>
       </c>
       <c r="C44">
-        <v>-23868.487937955637</v>
+        <v>-23453.515238749504</v>
       </c>
       <c r="D44">
-        <v>31557.468485971156</v>
+        <v>31637.584485523985</v>
       </c>
       <c r="E44">
-        <v>-0.21759590751423591</v>
+        <v>-0.22689507429525804</v>
       </c>
       <c r="F44">
-        <v>1.8347233215385312</v>
+        <v>1.8676662799723633</v>
       </c>
       <c r="G44">
-        <v>0.37933490998286468</v>
+        <v>0.33534096359746401</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>24208.236363636366</v>
+        <v>24432.400000000001</v>
       </c>
       <c r="B45">
-        <v>6654.058876066948</v>
+        <v>6602.1489208991379</v>
       </c>
       <c r="C45">
-        <v>-23453.515238749504</v>
+        <v>-23031.169920720244</v>
       </c>
       <c r="D45">
-        <v>31637.584485523985</v>
+        <v>31707.754643065866</v>
       </c>
       <c r="E45">
-        <v>-0.22689507429525804</v>
+        <v>-0.23625943461693991</v>
       </c>
       <c r="F45">
-        <v>1.8676662799723633</v>
+        <v>1.9005032512243356</v>
       </c>
       <c r="G45">
-        <v>0.33534096359746401</v>
+        <v>0.29059241706643402</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>24432.400000000001</v>
+        <v>24656.563636363637</v>
       </c>
       <c r="B46">
-        <v>6602.1489208991379</v>
+        <v>6548.1321451847716</v>
       </c>
       <c r="C46">
-        <v>-23031.169920720244</v>
+        <v>-22601.475310258276</v>
       </c>
       <c r="D46">
-        <v>31707.754643065866</v>
+        <v>31767.806212151878</v>
       </c>
       <c r="E46">
-        <v>-0.23625943461693991</v>
+        <v>-0.24569294147551174</v>
       </c>
       <c r="F46">
-        <v>1.9005032512243356</v>
+        <v>1.9332379028380635</v>
       </c>
       <c r="G46">
-        <v>0.29059241706643402</v>
+        <v>0.24505688181512808</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>24656.563636363637</v>
+        <v>24880.727272727272</v>
       </c>
       <c r="B47">
-        <v>6548.1321451847716</v>
+        <v>6491.9925921455833</v>
       </c>
       <c r="C47">
-        <v>-22601.475310258276</v>
+        <v>-22164.453964120672</v>
       </c>
       <c r="D47">
-        <v>31767.806212151878</v>
+        <v>31817.558978721383</v>
       </c>
       <c r="E47">
-        <v>-0.24569294147551174</v>
+        <v>-0.25519968258513936</v>
       </c>
       <c r="F47">
-        <v>1.9332379028380635</v>
+        <v>1.9658734572429015</v>
       </c>
       <c r="G47">
-        <v>0.24505688181512808</v>
+        <v>0.19870011054187686</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>24880.727272727272</v>
+        <v>25104.890909090911</v>
       </c>
       <c r="B48">
-        <v>6491.9925921455833</v>
+        <v>6433.7133729351999</v>
       </c>
       <c r="C48">
-        <v>-22164.453964120672</v>
+        <v>-21720.127772529639</v>
       </c>
       <c r="D48">
-        <v>31817.558978721383</v>
+        <v>31856.824829394292</v>
       </c>
       <c r="E48">
-        <v>-0.25519968258513936</v>
+        <v>-0.26478389034282468</v>
       </c>
       <c r="F48">
-        <v>1.9658734572429015</v>
+        <v>1.9984126569331295</v>
       </c>
       <c r="G48">
-        <v>0.19870011054187686</v>
+        <v>0.15148585721941565</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>25104.890909090911</v>
+        <v>25329.054545454543</v>
       </c>
       <c r="B49">
-        <v>6433.7133729351999</v>
+        <v>6373.2766329909673</v>
       </c>
       <c r="C49">
-        <v>-21720.127772529639</v>
+        <v>-21268.518070628135</v>
       </c>
       <c r="D49">
-        <v>31856.824829394292</v>
+        <v>31885.407286849801</v>
       </c>
       <c r="E49">
-        <v>-0.26478389034282468</v>
+        <v>-0.27444995241291592</v>
       </c>
       <c r="F49">
-        <v>1.9984126569331295</v>
+        <v>2.0308577240437331</v>
       </c>
       <c r="G49">
-        <v>0.15148585721941565</v>
+        <v>0.10337572383837546</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>25329.054545454543</v>
+        <v>25553.218181818185</v>
       </c>
       <c r="B50">
-        <v>6373.2766329909673</v>
+        <v>6310.6635159327298</v>
       </c>
       <c r="C50">
-        <v>-21268.518070628135</v>
+        <v>-20809.645759712228</v>
       </c>
       <c r="D50">
-        <v>31885.407286849801</v>
+        <v>31903.101009146405</v>
       </c>
       <c r="E50">
-        <v>-0.27444995241291592</v>
+        <v>-0.28420242297972526</v>
       </c>
       <c r="F50">
-        <v>2.0308577240437331</v>
+        <v>2.0632103135569535</v>
       </c>
       <c r="G50">
-        <v>0.10337572383837546</v>
+        <v>5.4328992421808442E-2</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>25553.218181818185</v>
+        <v>25777.381818181821</v>
       </c>
       <c r="B51">
-        <v>6310.6635159327298</v>
+        <v>6245.8541248608644</v>
       </c>
       <c r="C51">
-        <v>-20809.645759712228</v>
+        <v>-20343.531439815313</v>
       </c>
       <c r="D51">
-        <v>31903.101009146405</v>
+        <v>31909.691249505595</v>
       </c>
       <c r="E51">
-        <v>-0.28420242297972526</v>
+        <v>-0.29404603472033702</v>
       </c>
       <c r="F51">
-        <v>2.0632103135569535</v>
+        <v>2.0954714592502217</v>
       </c>
       <c r="G51">
-        <v>5.4328992421808442E-2</v>
+        <v>4.302440642297567E-3</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>25777.381818181821</v>
+        <v>26001.545454545456</v>
       </c>
       <c r="B52">
-        <v>6245.8541248608644</v>
+        <v>6178.8274808906035</v>
       </c>
       <c r="C52">
-        <v>-20343.531439815313</v>
+        <v>-19870.195555407081</v>
       </c>
       <c r="D52">
-        <v>31909.691249505595</v>
+        <v>31904.953272689498</v>
       </c>
       <c r="E52">
-        <v>-0.29404603472033702</v>
+        <v>-0.30398571155307635</v>
       </c>
       <c r="F52">
-        <v>2.0954714592502217</v>
+        <v>2.1276415113493865</v>
       </c>
       <c r="G52">
-        <v>4.302440642297567E-3</v>
+        <v>-4.6749860852971281E-2</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>26001.545454545456</v>
+        <v>26225.709090909091</v>
       </c>
       <c r="B53">
-        <v>6178.8274808906035</v>
+        <v>6109.5614787443201</v>
       </c>
       <c r="C53">
-        <v>-19870.195555407081</v>
+        <v>-19389.658556201412</v>
       </c>
       <c r="D53">
-        <v>31904.953272689498</v>
+        <v>31888.651723651616</v>
       </c>
       <c r="E53">
-        <v>-0.30398571155307635</v>
+        <v>-0.31402658222007651</v>
       </c>
       <c r="F53">
-        <v>2.1276415113493865</v>
+        <v>2.1597200646764123</v>
       </c>
       <c r="G53">
-        <v>-4.6749860852971281E-2</v>
+        <v>-9.8876771563122245E-2</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>26225.709090909091</v>
+        <v>26449.87272727273</v>
       </c>
       <c r="B54">
-        <v>6109.5614787443201</v>
+        <v>6038.0328392082647</v>
       </c>
       <c r="C54">
-        <v>-19389.658556201412</v>
+        <v>-18901.941075349452</v>
       </c>
       <c r="D54">
-        <v>31888.651723651616</v>
+        <v>31860.539943623182</v>
       </c>
       <c r="E54">
-        <v>-0.31402658222007651</v>
+        <v>-0.32417399476481568</v>
       </c>
       <c r="F54">
-        <v>2.1597200646764123</v>
+        <v>2.1917058758727199</v>
       </c>
       <c r="G54">
-        <v>-9.8876771563122245E-2</v>
+        <v>-0.15213032715283026</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>26449.87272727273</v>
+        <v>26674.036363636365</v>
       </c>
       <c r="B55">
-        <v>6038.0328392082647</v>
+        <v>5964.2170582450481</v>
       </c>
       <c r="C55">
-        <v>-18901.941075349452</v>
+        <v>-18407.064127631907</v>
       </c>
       <c r="D55">
-        <v>31860.539943623182</v>
+        <v>31820.359228207111</v>
       </c>
       <c r="E55">
-        <v>-0.32417399476481568</v>
+        <v>-0.33443353196722275</v>
       </c>
       <c r="F55">
-        <v>2.1917058758727199</v>
+        <v>2.2235967680313462</v>
       </c>
       <c r="G55">
-        <v>-0.15213032715283026</v>
+        <v>-0.20656601116687223</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>26674.036363636365</v>
+        <v>26898.2</v>
       </c>
       <c r="B56">
-        <v>5964.2170582450481</v>
+        <v>5888.0883525387017</v>
       </c>
       <c r="C56">
-        <v>-18407.064127631907</v>
+        <v>-17905.049330670583</v>
       </c>
       <c r="D56">
-        <v>31820.359228207111</v>
+        <v>31767.838021377967</v>
       </c>
       <c r="E56">
-        <v>-0.33443353196722275</v>
+        <v>-0.34481102779964201</v>
       </c>
       <c r="F56">
-        <v>2.2235967680313462</v>
+        <v>2.2553895207747798</v>
       </c>
       <c r="G56">
-        <v>-0.20656601116687223</v>
+        <v>-0.2622430556358939</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>26898.2</v>
+        <v>27122.36363636364</v>
       </c>
       <c r="B57">
-        <v>5888.0883525387017</v>
+        <v>5809.6196012347682</v>
       </c>
       <c r="C57">
-        <v>-17905.049330670583</v>
+        <v>-17395.919152658527</v>
       </c>
       <c r="D57">
-        <v>31767.838021377967</v>
+        <v>31702.691038515921</v>
       </c>
       <c r="E57">
-        <v>-0.34481102779964201</v>
+        <v>-0.35531258496634915</v>
       </c>
       <c r="F57">
-        <v>2.2553895207747798</v>
+        <v>2.2870797434607795</v>
       </c>
       <c r="G57">
-        <v>-0.2622430556358939</v>
+        <v>-0.31922477423313933</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>27122.36363636364</v>
+        <v>27346.527272727275</v>
       </c>
       <c r="B58">
-        <v>5809.6196012347682</v>
+        <v>5728.7822836244086</v>
       </c>
       <c r="C58">
-        <v>-17395.919152658527</v>
+        <v>-16879.697190677776</v>
       </c>
       <c r="D58">
-        <v>31702.691038515921</v>
+        <v>31624.61831072138</v>
       </c>
       <c r="E58">
-        <v>-0.35531258496634915</v>
+        <v>-0.36594459358681974</v>
       </c>
       <c r="F58">
-        <v>2.2870797434607795</v>
+        <v>2.3186617287727325</v>
       </c>
       <c r="G58">
-        <v>-0.31922477423313933</v>
+        <v>-0.37757893218220084</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>27346.527272727275</v>
+        <v>27570.69090909091</v>
       </c>
       <c r="B59">
-        <v>5728.7822836244086</v>
+        <v>5645.5464125087146</v>
       </c>
       <c r="C59">
-        <v>-16879.697190677776</v>
+        <v>-16356.408484347265</v>
       </c>
       <c r="D59">
-        <v>31624.61831072138</v>
+        <v>31533.304141644709</v>
       </c>
       <c r="E59">
-        <v>-0.36594459358681974</v>
+        <v>-0.37671375107793487</v>
       </c>
       <c r="F59">
-        <v>2.3186617287727325</v>
+        <v>2.3501282834384893</v>
       </c>
       <c r="G59">
-        <v>-0.37757893218220084</v>
+        <v>-0.43737815774737121</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>27570.69090909091</v>
+        <v>27794.854545454546</v>
       </c>
       <c r="B60">
-        <v>5645.5464125087146</v>
+        <v>5559.8804629683418</v>
       </c>
       <c r="C60">
-        <v>-16356.408484347265</v>
+        <v>-15826.079870343798</v>
       </c>
       <c r="D60">
-        <v>31533.304141644709</v>
+        <v>31428.415966901335</v>
       </c>
       <c r="E60">
-        <v>-0.37671375107793487</v>
+        <v>-0.3876270832817883</v>
       </c>
       <c r="F60">
-        <v>2.3501282834384893</v>
+        <v>2.38147053220223</v>
       </c>
       <c r="G60">
-        <v>-0.43737815774737121</v>
+        <v>-0.49870040087811895</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>27794.854545454546</v>
+        <v>28019.018181818181</v>
       </c>
       <c r="B61">
-        <v>5559.8804629683418</v>
+        <v>5471.7512962547316</v>
       </c>
       <c r="C61">
-        <v>-15826.079870343798</v>
+        <v>-15288.740384291514</v>
       </c>
       <c r="D61">
-        <v>31428.415966901335</v>
+        <v>31309.603104797512</v>
       </c>
       <c r="E61">
-        <v>-0.3876270832817883</v>
+        <v>-0.39869196687243241</v>
       </c>
       <c r="F61">
-        <v>2.38147053220223</v>
+        <v>2.4126776904226817</v>
       </c>
       <c r="G61">
-        <v>-0.49870040087811895</v>
+        <v>-0.56162944544836513</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>28019.018181818181</v>
+        <v>28243.18181818182</v>
       </c>
       <c r="B62">
-        <v>5471.7512962547316</v>
+        <v>5381.1240785140226</v>
       </c>
       <c r="C62">
-        <v>-15288.740384291514</v>
+        <v>-14744.421717652896</v>
       </c>
       <c r="D62">
-        <v>31309.603104797512</v>
+        <v>31176.495385537302</v>
       </c>
       <c r="E62">
-        <v>-0.39869196687243241</v>
+        <v>-0.409916153055084</v>
       </c>
       <c r="F62">
-        <v>2.4126776904226817</v>
+        <v>2.4437367997567998</v>
       </c>
       <c r="G62">
-        <v>-0.56162944544836513</v>
+        <v>-0.62625548255516417</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>28243.18181818182</v>
+        <v>28467.345454545459</v>
       </c>
       <c r="B63">
-        <v>5381.1240785140226</v>
+        <v>5287.9621940547349</v>
       </c>
       <c r="C63">
-        <v>-14744.421717652896</v>
+        <v>-14193.158738617774</v>
       </c>
       <c r="D63">
-        <v>31176.495385537302</v>
+        <v>31028.701644275534</v>
       </c>
       <c r="E63">
-        <v>-0.409916153055084</v>
+        <v>-0.42130779254265627</v>
       </c>
       <c r="F63">
-        <v>2.4437367997567998</v>
+        <v>2.4746324202708792</v>
       </c>
       <c r="G63">
-        <v>-0.62625548255516417</v>
+        <v>-0.69267575355068478</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>28467.345454545459</v>
+        <v>28691.509090909094</v>
       </c>
       <c r="B64">
-        <v>5287.9621940547349</v>
+        <v>5192.2271528783494</v>
       </c>
       <c r="C64">
-        <v>-14193.158738617774</v>
+        <v>-13634.990087629845</v>
       </c>
       <c r="D64">
-        <v>31028.701644275534</v>
+        <v>30865.808061281637</v>
       </c>
       <c r="E64">
-        <v>-0.42130779254265627</v>
+        <v>-0.43287546175384867</v>
       </c>
       <c r="F64">
-        <v>2.4746324202708792</v>
+        <v>2.5053462709505432</v>
       </c>
       <c r="G64">
-        <v>-0.69267575355068478</v>
+        <v>-0.76099527291338298</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>28691.509090909094</v>
+        <v>28915.672727272729</v>
       </c>
       <c r="B65">
-        <v>5192.2271528783494</v>
+        <v>5093.8784922101113</v>
       </c>
       <c r="C65">
-        <v>-13634.990087629845</v>
+        <v>-13069.958860170416</v>
       </c>
       <c r="D65">
-        <v>30865.808061281637</v>
+        <v>30687.376330028339</v>
       </c>
       <c r="E65">
-        <v>-0.43287546175384867</v>
+        <v>-0.44462819012035004</v>
       </c>
       <c r="F65">
-        <v>2.5053462709505432</v>
+        <v>2.5358568088930782</v>
       </c>
       <c r="G65">
-        <v>-0.76099527291338298</v>
+        <v>-0.83132764276542948</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>28915.672727272729</v>
+        <v>29139.836363636365</v>
       </c>
       <c r="B66">
-        <v>5093.8784922101113</v>
+        <v>4992.873671801246</v>
       </c>
       <c r="C66">
-        <v>-13069.958860170416</v>
+        <v>-12498.113391825344</v>
       </c>
       <c r="D66">
-        <v>30687.376330028339</v>
+        <v>30492.941631152535</v>
       </c>
       <c r="E66">
-        <v>-0.44462819012035004</v>
+        <v>-0.45657548831217803</v>
       </c>
       <c r="F66">
-        <v>2.5358568088930782</v>
+        <v>2.5661387353770935</v>
       </c>
       <c r="G66">
-        <v>-0.83132764276542948</v>
+        <v>-0.90379597286911495</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>29139.836363636365</v>
+        <v>29364</v>
       </c>
       <c r="B67">
-        <v>4992.873671801246</v>
+        <v>4889.1679628278625</v>
       </c>
       <c r="C67">
-        <v>-12498.113391825344</v>
+        <v>-11919.508163585979</v>
       </c>
       <c r="D67">
-        <v>30492.941631152535</v>
+        <v>30282.010386871378</v>
       </c>
       <c r="E67">
-        <v>-0.45657548831217803</v>
+        <v>-0.46872737708235401</v>
       </c>
       <c r="F67">
-        <v>2.5661387353770935</v>
+        <v>2.5961624144096254</v>
       </c>
       <c r="G67">
-        <v>-0.90379597286911495</v>
+        <v>-0.97853392235509218</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>29364</v>
+        <v>29588.163636363639</v>
       </c>
       <c r="B68">
-        <v>4889.1679628278625</v>
+        <v>4782.7143302944678</v>
       </c>
       <c r="C68">
-        <v>-11919.508163585979</v>
+        <v>-11334.204848912914</v>
       </c>
       <c r="D68">
-        <v>30282.010386871378</v>
+        <v>30054.057766478138</v>
       </c>
       <c r="E68">
-        <v>-0.46872737708235401</v>
+        <v>-0.4810944162844924</v>
       </c>
       <c r="F68">
-        <v>2.5961624144096254</v>
+        <v>2.6258931861111989</v>
       </c>
       <c r="G68">
-        <v>-0.97853392235509218</v>
+        <v>-1.0556868823343111</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>29588.163636363639</v>
+        <v>29812.327272727274</v>
       </c>
       <c r="B69">
-        <v>4782.7143302944678</v>
+        <v>4673.4633089718154</v>
       </c>
       <c r="C69">
-        <v>-11334.204848912914</v>
+        <v>-10742.273528484688</v>
       </c>
       <c r="D69">
-        <v>30054.057766478138</v>
+        <v>29808.524908871841</v>
       </c>
       <c r="E69">
-        <v>-0.4810944162844924</v>
+        <v>-0.49368773341541833</v>
       </c>
       <c r="F69">
-        <v>2.6258931861111989</v>
+        <v>2.655290553235603</v>
       </c>
       <c r="G69">
-        <v>-1.0556868823343111</v>
+        <v>-1.1354133220284923</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>29812.327272727274</v>
+        <v>30036.490909090913</v>
       </c>
       <c r="B70">
-        <v>4673.4633089718154</v>
+        <v>4561.362873072605</v>
       </c>
       <c r="C70">
-        <v>-10742.273528484688</v>
+        <v>-10143.794103967655</v>
       </c>
       <c r="D70">
-        <v>29808.524908871841</v>
+        <v>29544.815822543213</v>
       </c>
       <c r="E70">
-        <v>-0.49368773341541833</v>
+        <v>-0.50651905076033077</v>
       </c>
       <c r="F70">
-        <v>2.655290553235603</v>
+        <v>2.6843072139976742</v>
       </c>
       <c r="G70">
-        <v>-1.1354133220284923</v>
+        <v>-1.217886325251138</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>30036.490909090913</v>
+        <v>30260.654545454548</v>
       </c>
       <c r="B71">
-        <v>4561.362873072605</v>
+        <v>4446.3583001159632</v>
       </c>
       <c r="C71">
-        <v>-10143.794103967655</v>
+        <v>-9538.8579488596897</v>
       </c>
       <c r="D71">
-        <v>29544.815822543213</v>
+        <v>29262.293916876748</v>
       </c>
       <c r="E71">
-        <v>-0.50651905076033077</v>
+        <v>-0.51960070984351969</v>
       </c>
       <c r="F71">
-        <v>2.6843072139976742</v>
+        <v>2.7128879078884425</v>
       </c>
       <c r="G71">
-        <v>-1.217886325251138</v>
+        <v>-1.3032953491417265</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>30260.654545454548</v>
+        <v>30484.818181818184</v>
       </c>
       <c r="B72">
-        <v>4446.3583001159632</v>
+        <v>4328.392029775966</v>
       </c>
       <c r="C72">
-        <v>-9538.8579488596897</v>
+        <v>-8927.5698428155119</v>
       </c>
       <c r="D72">
-        <v>29262.293916876748</v>
+        <v>28960.278110808777</v>
       </c>
       <c r="E72">
-        <v>-0.51960070984351969</v>
+        <v>-0.53294569137667591</v>
       </c>
       <c r="F72">
-        <v>2.7128879078884425</v>
+        <v>2.7409680328810131</v>
       </c>
       <c r="G72">
-        <v>-1.3032953491417265</v>
+        <v>-1.3918482432002828</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>30484.818181818184</v>
+        <v>30708.981818181819</v>
       </c>
       <c r="B73">
-        <v>4328.392029775966</v>
+        <v>4207.4035189893175</v>
       </c>
       <c r="C73">
-        <v>-8927.5698428155119</v>
+        <v>-8310.0502463274224</v>
       </c>
       <c r="D73">
-        <v>28960.278110808777</v>
+        <v>28638.038455544469</v>
       </c>
       <c r="E73">
-        <v>-0.53294569137667591</v>
+        <v>-0.54656762819792681</v>
       </c>
       <c r="F73">
-        <v>2.7409680328810131</v>
+        <v>2.7684719818218984</v>
       </c>
       <c r="G73">
-        <v>-1.3918482432002828</v>
+        <v>-1.4837735741323823</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>30708.981818181819</v>
+        <v>30933.145454545454</v>
       </c>
       <c r="B74">
-        <v>4207.4035189893175</v>
+        <v>4083.3290952610241</v>
       </c>
       <c r="C74">
-        <v>-8310.0502463274224</v>
+        <v>-7686.4379858050397</v>
       </c>
       <c r="D74">
-        <v>28638.038455544469</v>
+        <v>28294.791196849968</v>
       </c>
       <c r="E74">
-        <v>-0.54656762819792681</v>
+        <v>-0.560480807736364</v>
       </c>
       <c r="F74">
-        <v>2.7684719818218984</v>
+        <v>2.7953111321216801</v>
       </c>
       <c r="G74">
-        <v>-1.4837735741323823</v>
+        <v>-1.5793233111008838</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>30933.145454545454</v>
+        <v>31157.30909090909</v>
       </c>
       <c r="B75">
-        <v>4083.3290952610241</v>
+        <v>3956.1018110234195</v>
       </c>
       <c r="C75">
-        <v>-7686.4379858050397</v>
+        <v>-7056.8934357689395</v>
       </c>
       <c r="D75">
-        <v>28294.791196849968</v>
+        <v>27929.693188996283</v>
       </c>
       <c r="E75">
-        <v>-0.560480807736364</v>
+        <v>-0.57470015921794548</v>
       </c>
       <c r="F75">
-        <v>2.7953111321216801</v>
+        <v>2.8213814051041926</v>
       </c>
       <c r="G75">
-        <v>-1.5793233111008838</v>
+        <v>-1.6787759370647788</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>31157.30909090909</v>
+        <v>31381.472727272725</v>
       </c>
       <c r="B76">
-        <v>3956.1018110234195</v>
+        <v>3825.6513031696954</v>
       </c>
       <c r="C76">
-        <v>-7056.8934357689395</v>
+        <v>-6421.6023061055403</v>
       </c>
       <c r="D76">
-        <v>27929.693188996283</v>
+        <v>27541.835556241283</v>
       </c>
       <c r="E76">
-        <v>-0.57470015921794548</v>
+        <v>-0.58924121900589144</v>
       </c>
       <c r="F76">
-        <v>2.8213814051041926</v>
+        <v>2.8465602881783689</v>
       </c>
       <c r="G76">
-        <v>-1.6787759370647788</v>
+        <v>-1.7824400654261428</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>31381.472727272725</v>
+        <v>31605.636363636368</v>
       </c>
       <c r="B77">
-        <v>3825.6513031696954</v>
+        <v>3691.9036636321262</v>
       </c>
       <c r="C77">
-        <v>-6421.6023061055403</v>
+        <v>-5780.7801695407143</v>
       </c>
       <c r="D77">
-        <v>27541.835556241283</v>
+        <v>27130.236478184768</v>
       </c>
       <c r="E77">
-        <v>-0.58924121900589144</v>
+        <v>-0.60412006493725867</v>
       </c>
       <c r="F77">
-        <v>2.8465602881783689</v>
+        <v>2.8707031824834255</v>
       </c>
       <c r="G77">
-        <v>-1.7824400654261428</v>
+        <v>-1.8906586577605971</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>31605.636363636368</v>
+        <v>31829.800000000003</v>
       </c>
       <c r="B78">
-        <v>3691.9036636321262</v>
+        <v>3554.7813292978103</v>
       </c>
       <c r="C78">
-        <v>-5780.7801695407143</v>
+        <v>-5134.6778995959994</v>
       </c>
       <c r="D78">
-        <v>27130.236478184768</v>
+        <v>26693.832951669719</v>
       </c>
       <c r="E78">
-        <v>-0.60412006493725867</v>
+        <v>-0.619353206982027</v>
       </c>
       <c r="F78">
-        <v>2.8707031824834255</v>
+        <v>2.8936388982234282</v>
       </c>
       <c r="G78">
-        <v>-1.8906586577605971</v>
+        <v>-2.0038139586398103</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>31829.800000000003</v>
+        <v>32053.963636363638</v>
       </c>
       <c r="B79">
-        <v>3554.7813292978103</v>
+        <v>3414.2030029205607</v>
       </c>
       <c r="C79">
-        <v>-5134.6778995959994</v>
+        <v>-4483.5882348992382</v>
       </c>
       <c r="D79">
-        <v>26693.832951669719</v>
+        <v>26231.471353222063</v>
       </c>
       <c r="E79">
-        <v>-0.619353206982027</v>
+        <v>-0.63495741658301408</v>
       </c>
       <c r="F79">
-        <v>2.8936388982234282</v>
+        <v>2.9151640659151519</v>
       </c>
       <c r="G79">
-        <v>-2.0038139586398103</v>
+        <v>-2.1223332882417369</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>32053.963636363638</v>
+        <v>32278.127272727274</v>
       </c>
       <c r="B80">
-        <v>3414.2030029205607</v>
+        <v>3270.083621384345</v>
       </c>
       <c r="C80">
-        <v>-4483.5882348992382</v>
+        <v>-3827.8537454158777</v>
       </c>
       <c r="D80">
-        <v>26231.471353222063</v>
+        <v>25741.896591227389</v>
       </c>
       <c r="E80">
-        <v>-0.63495741658301408</v>
+        <v>-0.65094947000546299</v>
       </c>
       <c r="F80">
-        <v>2.9151640659151519</v>
+        <v>2.9350361590979137</v>
       </c>
       <c r="G80">
-        <v>-2.1223332882417369</v>
+        <v>-2.2466958634484966</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>32278.127272727274</v>
+        <v>32502.290909090916</v>
       </c>
       <c r="B81">
-        <v>3270.083621384345</v>
+        <v>3122.3343942600936</v>
       </c>
       <c r="C81">
-        <v>-3827.8537454158777</v>
+        <v>-3167.8765548997744</v>
       </c>
       <c r="D81">
-        <v>25741.896591227389</v>
+        <v>25223.739594843453</v>
       </c>
       <c r="E81">
-        <v>-0.65094947000546299</v>
+        <v>-0.66734577100401193</v>
       </c>
       <c r="F81">
-        <v>2.9350361590979137</v>
+        <v>2.9529647254070142</v>
       </c>
       <c r="G81">
-        <v>-2.2466958634484966</v>
+        <v>-2.3774408543401031</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>32502.290909090916</v>
+        <v>32726.454545454551</v>
       </c>
       <c r="B82">
-        <v>3122.3343942600936</v>
+        <v>2970.8629448905217</v>
       </c>
       <c r="C82">
-        <v>-3167.8765548997744</v>
+        <v>-2504.130278560453</v>
       </c>
       <c r="D82">
-        <v>25223.739594843453</v>
+        <v>24675.502835563799</v>
       </c>
       <c r="E82">
-        <v>-0.66734577100401193</v>
+        <v>-0.68416180371126634</v>
       </c>
       <c r="F82">
-        <v>2.9529647254070142</v>
+        <v>2.9686002878308209</v>
       </c>
       <c r="G82">
-        <v>-2.3774408543401031</v>
+        <v>-2.5151769261564287</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>32726.454545454551</v>
+        <v>32950.618181818187</v>
       </c>
       <c r="B83">
-        <v>2970.8629448905217</v>
+        <v>2815.5735994374218</v>
       </c>
       <c r="C83">
-        <v>-2504.130278560453</v>
+        <v>-1837.1747753645959</v>
       </c>
       <c r="D83">
-        <v>24675.502835563799</v>
+        <v>24095.543515772933</v>
       </c>
       <c r="E83">
-        <v>-0.68416180371126634</v>
+        <v>-0.70141134576590181</v>
       </c>
       <c r="F83">
-        <v>2.9686002878308209</v>
+        <v>2.9815201912935247</v>
       </c>
       <c r="G83">
-        <v>-2.5151769261564287</v>
+        <v>-2.6605935672063112</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>32950.618181818187</v>
+        <v>33174.781818181822</v>
       </c>
       <c r="B84">
-        <v>2815.5735994374218</v>
+        <v>2656.3678882208078</v>
       </c>
       <c r="C84">
-        <v>-1837.1747753645959</v>
+        <v>-1167.6745044295585</v>
       </c>
       <c r="D84">
-        <v>24095.543515772933</v>
+        <v>23482.053985011938</v>
       </c>
       <c r="E84">
-        <v>-0.70141134576590181</v>
+        <v>-0.71910534112052882</v>
       </c>
       <c r="F84">
-        <v>2.9815201912935247</v>
+        <v>2.9912104092432443</v>
       </c>
       <c r="G84">
-        <v>-2.6605935672063112</v>
+        <v>-2.8144745600016097</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>33174.781818181822</v>
+        <v>33398.945454545457</v>
       </c>
       <c r="B85">
-        <v>2656.3678882208078</v>
+        <v>2493.1453509561215</v>
       </c>
       <c r="C85">
-        <v>-1167.6745044295585</v>
+        <v>-496.42153459747897</v>
       </c>
       <c r="D85">
-        <v>23482.053985011938</v>
+        <v>22833.038857875174</v>
       </c>
       <c r="E85">
-        <v>-0.71910534112052882</v>
+        <v>-0.73725028674227699</v>
       </c>
       <c r="F85">
-        <v>2.9912104092432443</v>
+        <v>2.9970419578872551</v>
       </c>
       <c r="G85">
-        <v>-2.8144745600016097</v>
+        <v>-2.97771401279069</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>33398.945454545457</v>
+        <v>33623.109090909093</v>
       </c>
       <c r="B86">
-        <v>2493.1453509561215</v>
+        <v>2325.804777242241</v>
       </c>
       <c r="C86">
-        <v>-496.42153459747897</v>
+        <v>175.63538549383702</v>
       </c>
       <c r="D86">
-        <v>22833.038857875174</v>
+        <v>22146.288207588914</v>
       </c>
       <c r="E86">
-        <v>-0.73725028674227699</v>
+        <v>-0.75584591978577587</v>
       </c>
       <c r="F86">
-        <v>2.9970419578872551</v>
+        <v>2.9982400431617107</v>
       </c>
       <c r="G86">
-        <v>-2.97771401279069</v>
+        <v>-3.1513354233868807</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>33623.109090909093</v>
+        <v>33847.272727272728</v>
       </c>
       <c r="B87">
-        <v>2325.804777242241</v>
+        <v>2154.2460721631091</v>
       </c>
       <c r="C87">
-        <v>175.63538549383702</v>
+        <v>847.35379014285354</v>
       </c>
       <c r="D87">
-        <v>22146.288207588914</v>
+        <v>21419.346099324786</v>
       </c>
       <c r="E87">
-        <v>-0.75584591978577587</v>
+        <v>-0.77488188949069614</v>
       </c>
       <c r="F87">
-        <v>2.9982400431617107</v>
+        <v>2.9938433137078921</v>
       </c>
       <c r="G87">
-        <v>-3.1513354233868807</v>
+        <v>-3.3365142786045316</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>33847.272727272728</v>
+        <v>34071.436363636363</v>
       </c>
       <c r="B88">
-        <v>2154.2460721631091</v>
+        <v>1978.3730239505639</v>
       </c>
       <c r="C88">
-        <v>847.35379014285354</v>
+        <v>1517.3498818061616</v>
       </c>
       <c r="D88">
-        <v>21419.346099324786</v>
+        <v>20649.473616096286</v>
       </c>
       <c r="E88">
-        <v>-0.77488188949069614</v>
+        <v>-0.79433294131113297</v>
       </c>
       <c r="F88">
-        <v>2.9938433137078921</v>
+        <v>2.9826494999429753</v>
       </c>
       <c r="G88">
-        <v>-3.3365142786045316</v>
+        <v>-3.5346046633494321</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>34071.436363636363</v>
+        <v>34295.600000000006</v>
       </c>
       <c r="B89">
-        <v>1978.3730239505639</v>
+        <v>1798.0973818154218</v>
       </c>
       <c r="C89">
-        <v>1517.3498818061616</v>
+        <v>2183.9367262594315</v>
       </c>
       <c r="D89">
-        <v>20649.473616096286</v>
+        <v>19833.605438716986</v>
       </c>
       <c r="E89">
-        <v>-0.79433294131113297</v>
+        <v>-0.8141518975439177</v>
       </c>
       <c r="F89">
-        <v>2.9826494999429753</v>
+        <v>2.9631421130376636</v>
       </c>
       <c r="G89">
-        <v>-3.5346046633494321</v>
+        <v>-3.7471701886168649</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>34295.600000000006</v>
+        <v>34519.763636363641</v>
       </c>
       <c r="B90">
-        <v>1798.0973818154218</v>
+        <v>1613.3448521049058</v>
       </c>
       <c r="C90">
-        <v>2183.9367262594315</v>
+        <v>2845.0432017621197</v>
       </c>
       <c r="D90">
-        <v>19833.605438716986</v>
+        <v>18968.299014863398</v>
       </c>
       <c r="E90">
-        <v>-0.8141518975439177</v>
+        <v>-0.83425933612846348</v>
       </c>
       <c r="F90">
-        <v>2.9631421130376636</v>
+        <v>2.9333904938343673</v>
       </c>
       <c r="G90">
-        <v>-3.7471701886168649</v>
+        <v>-3.9760190994237607</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>34519.763636363641</v>
+        <v>34743.927272727276</v>
       </c>
       <c r="B91">
-        <v>1613.3448521049058</v>
+        <v>1424.0639301603069</v>
       </c>
       <c r="C91">
-        <v>2845.0432017621197</v>
+        <v>3498.1065450709502</v>
       </c>
       <c r="D91">
-        <v>18968.299014863398</v>
+        <v>18049.675483300682</v>
       </c>
       <c r="E91">
-        <v>-0.83425933612846348</v>
+        <v>-0.85452825914936803</v>
       </c>
       <c r="F91">
-        <v>2.9333904938343673</v>
+        <v>2.8909119329060511</v>
       </c>
       <c r="G91">
-        <v>-3.9760190994237607</v>
+        <v>-4.2232424007670257</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>34743.927272727276</v>
+        <v>34968.090909090912</v>
       </c>
       <c r="B92">
-        <v>1424.0639301603069</v>
+        <v>1230.2389698536779</v>
       </c>
       <c r="C92">
-        <v>3498.1065450709502</v>
+        <v>4139.9282473656795</v>
       </c>
       <c r="D92">
-        <v>18049.675483300682</v>
+        <v>17073.351993815937</v>
       </c>
       <c r="E92">
-        <v>-0.85452825914936803</v>
+        <v>-0.87476105612705901</v>
       </c>
       <c r="F92">
-        <v>2.8909119329060511</v>
+        <v>2.832479204961794</v>
       </c>
       <c r="G92">
-        <v>-4.2232424007670257</v>
+        <v>-4.4912516668990028</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>34968.090909090912</v>
+        <v>35192.254545454547</v>
       </c>
       <c r="B93">
-        <v>1230.2389698536779</v>
+        <v>1031.9096629649321</v>
       </c>
       <c r="C93">
-        <v>4139.9282473656795</v>
+        <v>4766.4784711388847</v>
       </c>
       <c r="D93">
-        <v>17073.351993815937</v>
+        <v>16034.366252604887</v>
       </c>
       <c r="E93">
-        <v>-0.87476105612705901</v>
+        <v>-0.89465445155536727</v>
       </c>
       <c r="F93">
-        <v>2.832479204961794</v>
+        <v>2.7538487376771057</v>
       </c>
       <c r="G93">
-        <v>-4.4912516668990028</v>
+        <v>-4.7828087333550062</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>35192.254545454547</v>
+        <v>35416.418181818182</v>
       </c>
       <c r="B94">
-        <v>1031.9096629649321</v>
+        <v>829.20034138245387</v>
       </c>
       <c r="C94">
-        <v>4766.4784711388847</v>
+        <v>5372.627327822619</v>
       </c>
       <c r="D94">
-        <v>16034.366252604887</v>
+        <v>14927.096767960607</v>
       </c>
       <c r="E94">
-        <v>-0.89465445155536727</v>
+        <v>-0.91374545069068591</v>
       </c>
       <c r="F94">
-        <v>2.7538487376771057</v>
+        <v>2.649372433304837</v>
       </c>
       <c r="G94">
-        <v>-4.7828087333550062</v>
+        <v>-5.101030420455074</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>35416.418181818182</v>
+        <v>35640.581818181825</v>
       </c>
       <c r="B95">
-        <v>829.20034138245387</v>
+        <v>622.3645386140214</v>
       </c>
       <c r="C95">
-        <v>5372.627327822619</v>
+        <v>5951.7711775790558</v>
       </c>
       <c r="D95">
-        <v>14927.096767960607</v>
+        <v>13745.187858487468</v>
       </c>
       <c r="E95">
-        <v>-0.91374545069068591</v>
+        <v>-0.93132683614077971</v>
       </c>
       <c r="F95">
-        <v>2.649372433304837</v>
+        <v>2.5114382134178532</v>
       </c>
       <c r="G95">
-        <v>-5.101030420455074</v>
+        <v>-5.4493331677579739</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>35640.581818181825</v>
+        <v>35864.74545454546</v>
       </c>
       <c r="B96">
-        <v>622.3645386140214</v>
+        <v>411.85357612562916</v>
       </c>
       <c r="C96">
-        <v>5951.7711775790558</v>
+        <v>6495.3071313031032</v>
       </c>
       <c r="D96">
-        <v>13745.187858487468</v>
+        <v>12481.500013975952</v>
       </c>
       <c r="E96">
-        <v>-0.93132683614077971</v>
+        <v>-0.94631333720788646</v>
       </c>
       <c r="F96">
-        <v>2.5114382134178532</v>
+        <v>2.3296593576104234</v>
       </c>
       <c r="G96">
-        <v>-5.4493331677579739</v>
+        <v>-5.8312455520679309</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>35864.74545454546</v>
+        <v>36088.909090909088</v>
       </c>
       <c r="B97">
-        <v>411.85357612562916</v>
+        <v>198.42342653829576</v>
       </c>
       <c r="C97">
-        <v>6495.3071313031032</v>
+        <v>6991.8876720082208</v>
       </c>
       <c r="D97">
-        <v>12481.500013975952</v>
+        <v>11128.129736867077</v>
       </c>
       <c r="E97">
-        <v>-0.94631333720788646</v>
+        <v>-0.95702743972764603</v>
       </c>
       <c r="F97">
-        <v>2.3296593576104234</v>
+        <v>2.0897025861745444</v>
       </c>
       <c r="G97">
-        <v>-5.8312455520679309</v>
+        <v>-6.2499420303661388</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>36088.909090909088</v>
+        <v>36313.072727272731</v>
       </c>
       <c r="B98">
-        <v>198.42342653829576</v>
+        <v>-16.696967302337356</v>
       </c>
       <c r="C98">
-        <v>6991.8876720082208</v>
+        <v>7426.3598744590881</v>
       </c>
       <c r="D98">
-        <v>11128.129736867077</v>
+        <v>9676.590768687227</v>
       </c>
       <c r="E98">
-        <v>-0.95702743972764603</v>
+        <v>-0.96085500593449569</v>
       </c>
       <c r="F98">
-        <v>2.0897025861745444</v>
+        <v>1.7716244818265552</v>
       </c>
       <c r="G98">
-        <v>-6.2499420303661388</v>
+        <v>-6.7072010862528906</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>36313.072727272731</v>
+        <v>36537.236363636366</v>
       </c>
       <c r="B99">
-        <v>-16.696967302337356</v>
+        <v>-231.53885384157616</v>
       </c>
       <c r="C99">
-        <v>7426.3598744590881</v>
+        <v>7778.2674455955357</v>
       </c>
       <c r="D99">
-        <v>9676.590768687227</v>
+        <v>8118.3446573884557</v>
       </c>
       <c r="E99">
-        <v>-0.96085500593449569</v>
+        <v>-0.95369615190504864</v>
       </c>
       <c r="F99">
-        <v>1.7716244818265552</v>
+        <v>1.347633112005739</v>
       </c>
       <c r="G99">
-        <v>-6.7072010862528906</v>
+        <v>-7.2011954384579369</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>36537.236363636366</v>
+        <v>36761.4</v>
       </c>
       <c r="B100">
-        <v>-231.53885384157616</v>
+        <v>-442.9722851667849</v>
       </c>
       <c r="C100">
-        <v>7778.2674455955357</v>
+        <v>8019.8009814081579</v>
       </c>
       <c r="D100">
-        <v>8118.3446573884557</v>
+        <v>6446.0568195487931</v>
       </c>
       <c r="E100">
-        <v>-0.95369615190504864</v>
+        <v>-0.929121318406258</v>
       </c>
       <c r="F100">
-        <v>1.347633112005739</v>
+        <v>0.77949291087529593</v>
       </c>
       <c r="G100">
-        <v>-7.2011954384579369</v>
+        <v>-7.7219769758536607</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
